--- a/data/trans_dic/P62A$invalidez-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P62A$invalidez-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06052516981492077</v>
+        <v>0.06388173339044811</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0860165919555794</v>
+        <v>0.0845697642201146</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03098835965876746</v>
+        <v>0.03083880197164807</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.009792814387988805</v>
+        <v>0.009849407874262002</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04062733542903926</v>
+        <v>0.0407582798123367</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04882353106068305</v>
+        <v>0.04627926269326266</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03264052471750355</v>
+        <v>0.03163559778100076</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4921396111412624</v>
+        <v>0.4909770113155615</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05736471879362966</v>
+        <v>0.05814369777861129</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07285747769922667</v>
+        <v>0.07134321898780173</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03579600625703998</v>
+        <v>0.03618681567721531</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2788712915027662</v>
+        <v>0.2789175055577935</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.111882965002867</v>
+        <v>0.1138725483967356</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1437171708227844</v>
+        <v>0.1406117747132657</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07358358417474005</v>
+        <v>0.07140507677790056</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04260876103854725</v>
+        <v>0.04243404908112947</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08700966948004141</v>
+        <v>0.08582660451805979</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08980731469660302</v>
+        <v>0.08996568832558505</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07717414142264849</v>
+        <v>0.07543289138155566</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5674250238023081</v>
+        <v>0.5691574461028787</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09156688555103475</v>
+        <v>0.09199697582082661</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1085570672547398</v>
+        <v>0.1069958549513647</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06831718950170336</v>
+        <v>0.06543654572010277</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3310549321314894</v>
+        <v>0.3307863677142275</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1033450721756201</v>
+        <v>0.09869530844559933</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2112729928803906</v>
+        <v>0.2123169701426461</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1223400130217484</v>
+        <v>0.1230573738222533</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003453248947160925</v>
+        <v>0.003556150069660926</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.109485205186314</v>
+        <v>0.1120929169783447</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.156651913476426</v>
+        <v>0.1507642303679547</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0725004506709343</v>
+        <v>0.07477011131684816</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2410584682210269</v>
+        <v>0.2406437213510611</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1210172284299013</v>
+        <v>0.1199811062372496</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.204701333653803</v>
+        <v>0.2043208618247131</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1103538027711204</v>
+        <v>0.1119020905939915</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1051388003931117</v>
+        <v>0.1034003398065921</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2128985243009501</v>
+        <v>0.210289940457118</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3206714868241133</v>
+        <v>0.3176555349286631</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2024956135899284</v>
+        <v>0.198025661965276</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02442246042217438</v>
+        <v>0.02332325872624177</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2856967484581868</v>
+        <v>0.283998721261842</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2936062975655758</v>
+        <v>0.292742980443147</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.15667950882785</v>
+        <v>0.1567540716507896</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3184048195686289</v>
+        <v>0.320043184866335</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2134205994311218</v>
+        <v>0.2103934029601196</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2929033357985044</v>
+        <v>0.2919086890450454</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1682850922001962</v>
+        <v>0.1672051764579394</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1429108716017822</v>
+        <v>0.1417227672691408</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01506643452074756</v>
+        <v>0.01502141452129706</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07253769091565292</v>
+        <v>0.07282650906544549</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03131243617404645</v>
+        <v>0.04045440518285071</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02582157941419517</v>
+        <v>0.0247591390381547</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05351612515053665</v>
+        <v>0.05533448658478179</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01879521052834312</v>
+        <v>0.01928108045805292</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04090607273549134</v>
+        <v>0.04645523689938964</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03837404088210234</v>
+        <v>0.03391718967048839</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09246735691622691</v>
+        <v>0.09756796469892018</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04117279589760719</v>
+        <v>0.04017435458629368</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02201550446938347</v>
+        <v>0.02133022910095951</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.160675804608196</v>
+        <v>0.1707747053614401</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.355013038593344</v>
+        <v>0.3338959806628107</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.177795068737965</v>
+        <v>0.1761383619028539</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04141927951444696</v>
+        <v>0.04200752367497058</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.221490933953936</v>
+        <v>0.2286085893295091</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3226367582290444</v>
+        <v>0.3434851729611437</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.194049792092367</v>
+        <v>0.178818663601987</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1614693936555735</v>
+        <v>0.1612532890821196</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1611899266332421</v>
+        <v>0.1552225010011616</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2896115556164386</v>
+        <v>0.2866553901028634</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1425103002218421</v>
+        <v>0.135542675420189</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07375354831638642</v>
+        <v>0.07341858256771583</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07853439492203861</v>
+        <v>0.07717931018446877</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1396862912054777</v>
+        <v>0.1363327143932025</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08051427232772056</v>
+        <v>0.07949857498654882</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.007202378715236096</v>
+        <v>0.00734134359807475</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06141543492966444</v>
+        <v>0.06173126755344598</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08403197787135411</v>
+        <v>0.08351169824857284</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05440588324785647</v>
+        <v>0.05448172618219633</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.360951057490009</v>
+        <v>0.3611009438674016</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07606866298187306</v>
+        <v>0.07595453400478651</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1191097747814577</v>
+        <v>0.1194873973860238</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07268693449970984</v>
+        <v>0.07320261462530057</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1773465116518794</v>
+        <v>0.1766975149563381</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1203262674879033</v>
+        <v>0.1204109775294884</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1912127980024183</v>
+        <v>0.1902579422950453</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1213033447823983</v>
+        <v>0.1212451284200026</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02203381453625899</v>
+        <v>0.02290207798398085</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1081631461637326</v>
+        <v>0.106384347923355</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1305906253340681</v>
+        <v>0.128766862825307</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09513505659544602</v>
+        <v>0.095174226974894</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.413000414647838</v>
+        <v>0.4103823840768572</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1074210541607521</v>
+        <v>0.1071782522606371</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1548275820048869</v>
+        <v>0.1557881794476944</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1029736485671292</v>
+        <v>0.1023092844594116</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2065367852414872</v>
+        <v>0.2070266564030367</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>30902</v>
+        <v>32616</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>47224</v>
+        <v>46429</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13650</v>
+        <v>13584</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3141</v>
+        <v>3160</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>18276</v>
+        <v>18335</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>26206</v>
+        <v>24840</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>13888</v>
+        <v>13460</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>202303</v>
+        <v>201825</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>55095</v>
+        <v>55843</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>79105</v>
+        <v>77461</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>30998</v>
+        <v>31336</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>204095</v>
+        <v>204129</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>57124</v>
+        <v>58140</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>78902</v>
+        <v>77197</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>32412</v>
+        <v>31452</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13669</v>
+        <v>13612</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>39142</v>
+        <v>38610</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>48204</v>
+        <v>48289</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>32836</v>
+        <v>32095</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>233251</v>
+        <v>233963</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>87943</v>
+        <v>88356</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>117866</v>
+        <v>116171</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>59160</v>
+        <v>56666</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>242286</v>
+        <v>242089</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>17222</v>
+        <v>16447</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>58196</v>
+        <v>58483</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>47411</v>
+        <v>47689</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1477</v>
+        <v>1521</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9306</v>
+        <v>9527</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>26733</v>
+        <v>25728</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>18658</v>
+        <v>19243</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>73430</v>
+        <v>73303</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>30452</v>
+        <v>30192</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>91318</v>
+        <v>91149</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>71167</v>
+        <v>72165</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>77002</v>
+        <v>75728</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35478</v>
+        <v>35043</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>88330</v>
+        <v>87499</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>78475</v>
+        <v>76742</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>10447</v>
+        <v>9977</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>24283</v>
+        <v>24139</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>50105</v>
+        <v>49957</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>40322</v>
+        <v>40342</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>96991</v>
+        <v>97490</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>53705</v>
+        <v>52943</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>130666</v>
+        <v>130222</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>108526</v>
+        <v>107830</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>104665</v>
+        <v>103795</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3310</v>
+        <v>3323</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2170</v>
+        <v>2804</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1065</v>
+        <v>1021</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1904</v>
+        <v>1969</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>992</v>
+        <v>1018</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3505</v>
+        <v>3980</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3910</v>
+        <v>3456</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7508</v>
+        <v>7923</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5026</v>
+        <v>4904</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4593</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9747</v>
+        <v>10360</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16198</v>
+        <v>15234</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12322</v>
+        <v>12207</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5093</v>
+        <v>5166</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9133</v>
+        <v>9426</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11478</v>
+        <v>12220</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10241</v>
+        <v>9437</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13834</v>
+        <v>13815</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>16425</v>
+        <v>15817</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>23517</v>
+        <v>23277</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>17397</v>
+        <v>16547</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>15388</v>
+        <v>15318</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>57949</v>
+        <v>56949</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>121539</v>
+        <v>118621</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>72247</v>
+        <v>71336</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6277</v>
+        <v>6398</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>35381</v>
+        <v>35563</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>62434</v>
+        <v>62047</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>40022</v>
+        <v>40078</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>289251</v>
+        <v>289371</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>99951</v>
+        <v>99801</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>192131</v>
+        <v>192741</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>118693</v>
+        <v>119535</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>296680</v>
+        <v>295594</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>88786</v>
+        <v>88848</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>166372</v>
+        <v>165541</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>108848</v>
+        <v>108796</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>19203</v>
+        <v>19960</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>62311</v>
+        <v>61287</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>97026</v>
+        <v>95671</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>69983</v>
+        <v>70012</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>330961</v>
+        <v>328863</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>141147</v>
+        <v>140828</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>249746</v>
+        <v>251296</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>168149</v>
+        <v>167064</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>345512</v>
+        <v>346332</v>
       </c>
     </row>
     <row r="20">
